--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed4/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCD/10/seed4/result_data_KNN.xlsx
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.657999999999999</v>
+        <v>6.611</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -505,7 +505,7 @@
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.448</v>
+        <v>-7.393000000000001</v>
       </c>
       <c r="E4" t="n">
         <v>10.77</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-20.868</v>
+        <v>-20.912</v>
       </c>
       <c r="B9" t="n">
         <v>10.18</v>
@@ -607,7 +607,7 @@
         <v>-10.58</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.504</v>
+        <v>-7.907000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>16.23</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.43</v>
+        <v>-21.825</v>
       </c>
       <c r="B18" t="n">
         <v>5.81</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.398</v>
+        <v>-21.738</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -791,7 +791,7 @@
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-12.538</v>
+        <v>-12.688</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
